--- a/training_pessoas/training_pessoas-media/training_pessoas.xlsx
+++ b/training_pessoas/training_pessoas-media/training_pessoas.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\legend\ODK Forms\legend-odk-forms\training_pessoas\training_pessoas-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9F616F-540B-4AD5-BD00-DA37C8684BC8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +18,7 @@
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$A$1:$F$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$A$1:$F$2</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="207">
   <si>
     <t>type</t>
   </si>
@@ -85,9 +86,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>names</t>
-  </si>
-  <si>
     <t>form_title</t>
   </si>
   <si>
@@ -166,9 +164,6 @@
     <t>tec_name</t>
   </si>
   <si>
-    <t>Eugenio Sabonete</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
@@ -496,75 +491,6 @@
     <t>Niassa</t>
   </si>
   <si>
-    <t>Arlindo Macuva</t>
-  </si>
-  <si>
-    <t>Leonardo Chico Geraldo</t>
-  </si>
-  <si>
-    <t>Sadraque Francisco</t>
-  </si>
-  <si>
-    <t>Sama Tripalonga Vicente</t>
-  </si>
-  <si>
-    <t>Vasco Mateus</t>
-  </si>
-  <si>
-    <t>Veronica Williamo Humbane</t>
-  </si>
-  <si>
-    <t>Andre_Cobre</t>
-  </si>
-  <si>
-    <t>André Cobre</t>
-  </si>
-  <si>
-    <t>Arlindo_Macuva</t>
-  </si>
-  <si>
-    <t>Celestino_Machaia</t>
-  </si>
-  <si>
-    <t>Celestino Machaia</t>
-  </si>
-  <si>
-    <t>Eugenio_Sabonete</t>
-  </si>
-  <si>
-    <t>Eulalia_Candua</t>
-  </si>
-  <si>
-    <t>Eulália Pedro Candua</t>
-  </si>
-  <si>
-    <t>Leonardo_Geraldo</t>
-  </si>
-  <si>
-    <t>Liliete_Arlindo</t>
-  </si>
-  <si>
-    <t>Liliete Arlindo</t>
-  </si>
-  <si>
-    <t>Rito_Roaneque</t>
-  </si>
-  <si>
-    <t>Rito Roaneque</t>
-  </si>
-  <si>
-    <t>Sadraque_Francisco</t>
-  </si>
-  <si>
-    <t>Sama_Vicente</t>
-  </si>
-  <si>
-    <t>Vasco_Mateus</t>
-  </si>
-  <si>
-    <t>Veronica_Humbane</t>
-  </si>
-  <si>
     <t>calculate</t>
   </si>
   <si>
@@ -620,30 +546,6 @@
   </si>
   <si>
     <t>Tire uma fotografia da pessoa</t>
-  </si>
-  <si>
-    <t>Abrão Saraiva Namuire</t>
-  </si>
-  <si>
-    <t>Leonardo Pedro Henriques</t>
-  </si>
-  <si>
-    <t>Luis Jacinto Botomane</t>
-  </si>
-  <si>
-    <t>Abrão_Namuire</t>
-  </si>
-  <si>
-    <t>Leonardo_Henriques</t>
-  </si>
-  <si>
-    <t>Luis_Botomane</t>
-  </si>
-  <si>
-    <t>Teste_Captura_Dados</t>
-  </si>
-  <si>
-    <t>Teste Captura Dados</t>
   </si>
   <si>
     <t>concat('teste','_',${tec_name})</t>
@@ -742,6 +644,18 @@
   </si>
   <si>
     <t>if(${found_ID_numero}=${entered_ID_numero},1,2)</t>
+  </si>
+  <si>
+    <t>Teste_Captura_Dados_V2</t>
+  </si>
+  <si>
+    <t>tec_name_pull</t>
+  </si>
+  <si>
+    <t>${tec_name}</t>
+  </si>
+  <si>
+    <t>Teste Captura Dados V2</t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1121,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1235,8 +1149,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1276,14 +1188,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="234" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1332,19 +1236,22 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="237">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1920,386 +1827,398 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.625" style="51" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="57" customWidth="1"/>
-    <col min="3" max="3" width="58.375" style="51" customWidth="1"/>
-    <col min="4" max="4" width="17.625" style="51" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="51" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" style="51" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.75" style="51" customWidth="1"/>
-    <col min="8" max="8" width="36" style="51" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="126.75" style="49" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.625" style="51" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="51" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.875" style="51" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.375" style="51" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5" style="51" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.125" style="51" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.25" style="51" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="11" style="51"/>
+    <col min="1" max="1" width="31.625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="51" customWidth="1"/>
+    <col min="3" max="3" width="58.375" style="45" customWidth="1"/>
+    <col min="4" max="4" width="17.625" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.75" style="45" customWidth="1"/>
+    <col min="8" max="8" width="36" style="45" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="126.75" style="43" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.625" style="45" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="45" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.875" style="45" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.375" style="45" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5" style="45" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.125" style="45" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.25" style="45" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="11" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="O1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="43" t="s">
-        <v>36</v>
+      <c r="P1" s="37" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="44" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="I4" s="45"/>
+      <c r="M4" s="57" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="I5" s="45"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B4" s="52" t="s">
-        <v>179</v>
-      </c>
-      <c r="I4" s="51"/>
-      <c r="M4" s="64" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="63" t="s">
-        <v>206</v>
-      </c>
-      <c r="I5" s="51"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="61" t="s">
-        <v>208</v>
-      </c>
-      <c r="J6" s="51" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="61" t="s">
+    </row>
+    <row r="9" spans="1:16" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="M9" s="61" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="J7" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="51" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
-        <v>209</v>
-      </c>
-      <c r="B8" s="66" t="s">
-        <v>212</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="62" t="s">
-        <v>218</v>
-      </c>
-      <c r="C9" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="J9" s="61" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61" t="s">
-        <v>178</v>
-      </c>
-      <c r="B10" s="62" t="s">
-        <v>214</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="M10" s="61" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61" t="s">
-        <v>178</v>
-      </c>
-      <c r="B11" s="62" t="s">
-        <v>215</v>
+      <c r="J10" s="54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>181</v>
       </c>
       <c r="C11" s="1"/>
       <c r="M11" s="61" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="61" t="s">
-        <v>178</v>
-      </c>
-      <c r="B12" s="62" t="s">
-        <v>216</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>182</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="M12" s="61" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="61" t="s">
-        <v>178</v>
-      </c>
-      <c r="B13" s="62" t="s">
-        <v>217</v>
+      <c r="M12" s="54" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>183</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="M13" s="61" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
+      <c r="M13" s="54" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="M14" s="54" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" s="45"/>
+      <c r="L15" s="43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" s="43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="66" t="s">
-        <v>223</v>
-      </c>
-      <c r="C14" s="55" t="s">
-        <v>187</v>
-      </c>
-      <c r="G14" s="51"/>
-      <c r="L14" s="49" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
+      <c r="B20" s="44"/>
+    </row>
+    <row r="21" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="62" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="J15" s="49" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+      <c r="B21" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="J21" s="43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="62" t="s">
-        <v>229</v>
-      </c>
-      <c r="C16" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="J16" s="49" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="62" t="s">
-        <v>230</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="J17" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="J18" s="49" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="50"/>
-    </row>
-    <row r="20" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>196</v>
-      </c>
-      <c r="J20" s="49" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>181</v>
-      </c>
-      <c r="C21" s="51" t="s">
-        <v>182</v>
-      </c>
-      <c r="J21" s="51" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="61" t="s">
-        <v>178</v>
-      </c>
-      <c r="B22" s="62" t="s">
-        <v>224</v>
-      </c>
-      <c r="M22" s="64" t="s">
-        <v>232</v>
+      <c r="B22" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="J22" s="45" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="61" t="s">
-        <v>178</v>
-      </c>
-      <c r="B23" s="62" t="s">
-        <v>225</v>
-      </c>
-      <c r="M23" s="64" t="s">
-        <v>233</v>
+      <c r="A23" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="M23" s="57" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="61" t="s">
-        <v>178</v>
-      </c>
-      <c r="B24" s="62" t="s">
-        <v>226</v>
-      </c>
-      <c r="M24" s="64" t="s">
-        <v>234</v>
+      <c r="A24" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="M24" s="57" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="61" t="s">
-        <v>178</v>
-      </c>
-      <c r="B25" s="62" t="s">
-        <v>227</v>
-      </c>
-      <c r="M25" s="64" t="s">
-        <v>235</v>
+      <c r="A25" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="B25" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="M25" s="57" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B26" s="50"/>
+      <c r="A26" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="M26" s="57" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="56" t="s">
-        <v>29</v>
+      <c r="A27" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" s="44"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2310,19 +2229,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C96" sqref="C96"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="19.625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="19.625" style="23" customWidth="1"/>
     <col min="3" max="3" width="46.375" style="9" customWidth="1"/>
     <col min="4" max="4" width="17.5" style="9" customWidth="1"/>
     <col min="5" max="5" width="17.375" style="10" customWidth="1"/>
@@ -2341,13 +2260,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="G1" s="1"/>
     </row>
@@ -2359,834 +2278,644 @@
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>197</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="37" t="s">
+      <c r="A4" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="24"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" s="33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" s="33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" s="33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="34"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="B62" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C62" s="35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="B63" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="B65" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="C65" s="52" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="B66" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="C66" s="52" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="B67" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="38" t="s">
+      <c r="C67" s="52" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="39" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="38" t="s">
+      <c r="B68" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="C10" s="60" t="s">
-        <v>198</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="37" t="s">
+      <c r="C68" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="36" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="C12" s="60" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="11"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="26"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="B42" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="B43" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="B44" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="B46" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B48" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B49" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C49" s="30" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="C50" s="30" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="C51" s="30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B52" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="C52" s="30" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B53" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="C53" s="30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B54" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="C54" s="30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B55" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="C55" s="30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B56" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="C56" s="30" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B57" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="C57" s="30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B58" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="C58" s="30" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B59" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="C59" s="30" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B60" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C60" s="30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B61" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="C61" s="30" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B62" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="C62" s="30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B63" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="C63" s="30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B64" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="C64" s="30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="B66" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="C66" s="35" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="B67" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="C67" s="35" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="B68" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="C68" s="35" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="B69" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="C69" s="35" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="B70" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="C70" s="35" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="B71" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="C71" s="35" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="B72" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="C72" s="35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="B73" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="C73" s="35" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="B74" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="C74" s="35" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="B75" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="C75" s="35" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C77" s="40"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="B78" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="C78" s="41" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="B79" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="C79" s="41" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="58" t="s">
-        <v>188</v>
-      </c>
-      <c r="B81" s="59" t="s">
-        <v>189</v>
-      </c>
-      <c r="C81" s="58" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="58" t="s">
-        <v>188</v>
-      </c>
-      <c r="B82" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="C82" s="58" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="58" t="s">
-        <v>188</v>
-      </c>
-      <c r="B83" s="59" t="s">
-        <v>186</v>
-      </c>
-      <c r="C83" s="58" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="58" t="s">
-        <v>188</v>
-      </c>
-      <c r="B84" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="C84" s="58" t="s">
-        <v>195</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F11" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <sortState ref="B3:C17">
-    <sortCondition ref="C3:C17"/>
-  </sortState>
+  <autoFilter ref="A1:F2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -3197,7 +2926,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3211,30 +2940,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>133</v>
+      <c r="C1" s="30" t="s">
+        <v>131</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="32">
-        <v>201802161</v>
-      </c>
-      <c r="D2" s="61" t="s">
-        <v>205</v>
+      <c r="C2" s="30">
+        <v>201804241</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/training_pessoas/training_pessoas-media/training_pessoas.xlsx
+++ b/training_pessoas/training_pessoas-media/training_pessoas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\legend\ODK Forms\legend-odk-forms\training_pessoas\training_pessoas-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9F616F-540B-4AD5-BD00-DA37C8684BC8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13657E9-0C50-464B-ADF0-19F48E24B5C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1833,14 +1833,14 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.625" style="45" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="51" customWidth="1"/>
-    <col min="3" max="3" width="58.375" style="45" customWidth="1"/>
+    <col min="3" max="3" width="73" style="45" customWidth="1"/>
     <col min="4" max="4" width="17.625" style="45" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.25" style="45" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" style="45" bestFit="1" customWidth="1"/>
@@ -1927,7 +1927,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="240" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
         <v>44</v>
       </c>
@@ -2232,10 +2232,10 @@
   <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7:C17"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2926,7 +2926,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
